--- a/marcas.xlsx
+++ b/marcas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\catalogo_de_produtos-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\Upload-catalogo-de-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3213317-05AD-4546-B0A3-578629204533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F99B8E-E586-48F4-8E17-5284DB98FC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD2A9A74-437B-4CB3-A9B4-345B1B42112B}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Marca</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>HYPE KINGS</t>
+  </si>
+  <si>
+    <t>MARCA</t>
   </si>
 </sst>
 </file>
@@ -403,9 +403,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,34 +412,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/marcas.xlsx
+++ b/marcas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\Upload-catalogo-de-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F99B8E-E586-48F4-8E17-5284DB98FC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD0CCF-761A-44FF-A38F-8A588B6E7984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD2A9A74-437B-4CB3-A9B4-345B1B42112B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,18 +404,21 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -422,7 +426,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -430,7 +434,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -438,7 +442,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
